--- a/Doc/Project Plan_weekly.xlsx
+++ b/Doc/Project Plan_weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu.sharepoint.com/sites/msteams_564c74/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FADC61-239A-4981-AB64-71230EF87D8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFCE685-1AE1-43CC-BB2B-B996E33C641F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" firstSheet="1" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="68">
   <si>
     <t>15th Feb</t>
   </si>
@@ -193,16 +193,13 @@
     <t>Review algorithms</t>
   </si>
   <si>
-    <t>Review evaluation metrics</t>
-  </si>
-  <si>
     <t>Prototype</t>
   </si>
   <si>
-    <t>Find tutorial</t>
-  </si>
-  <si>
-    <t>Replicate tutorial</t>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Construct</t>
   </si>
   <si>
     <t>Create custom dataset</t>
@@ -242,19 +239,13 @@
   </si>
   <si>
     <t>Review Methodologies</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Construct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +257,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,43 +282,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -374,13 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -762,11 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -780,26 +756,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,7 +1106,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P48"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1217,10 +1206,10 @@
       <c r="O3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="R3" s="9" t="s">
@@ -1244,8 +1233,8 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="27"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22"/>
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="2:18">
@@ -1253,20 +1242,20 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="2:18">
@@ -1274,20 +1263,20 @@
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="2:18">
@@ -1295,20 +1284,20 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="25"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="2:18">
@@ -1326,8 +1315,8 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="25"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="2:18">
@@ -1347,8 +1336,8 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="25"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="2:18">
@@ -1356,7 +1345,7 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1368,8 +1357,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="2:18">
@@ -1377,7 +1366,7 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1389,8 +1378,8 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="25"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="2:18">
@@ -1398,21 +1387,21 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="2"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="11"/>
@@ -1430,9 +1419,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="25"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="54"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:18">
@@ -1451,10 +1440,10 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="11"/>
@@ -1472,10 +1461,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="11"/>
@@ -1492,8 +1481,8 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="25"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="2:18">
@@ -1513,8 +1502,8 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="2:18">
@@ -1522,20 +1511,20 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="25"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="2:18">
@@ -1543,20 +1532,20 @@
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="2:18">
@@ -1564,20 +1553,20 @@
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="25"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="2:18">
@@ -1585,20 +1574,20 @@
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="2:18">
@@ -1608,18 +1597,18 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="25"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="20"/>
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="2:18">
@@ -1637,8 +1626,8 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="25"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
       <c r="R23" s="2"/>
     </row>
     <row r="24" spans="2:18">
@@ -1658,1122 +1647,71 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="25"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" ht="15">
       <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="25"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="20"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" ht="15">
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" ht="15">
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="11"/>
-      <c r="C28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="11"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="11"/>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="11"/>
-      <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="2:18">
-      <c r="B33" s="11"/>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="2:18">
-      <c r="B34" s="11"/>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="2:18">
-      <c r="B35" s="11"/>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="B36" s="11"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="2:18">
-      <c r="B37" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="B38" s="11"/>
-      <c r="C38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="B39" s="11"/>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="B40" s="11"/>
-      <c r="C40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="B41" s="11"/>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="B42" s="11"/>
-      <c r="C42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="2:18">
-      <c r="B43" s="11"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="2:18" ht="43.15">
-      <c r="B44" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="2:18">
-      <c r="B45" s="11"/>
-      <c r="C45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="2:18">
-      <c r="B46" s="11"/>
-      <c r="C46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="2:18">
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="22"/>
-    </row>
-    <row r="48" spans="2:18" ht="14.65" thickBot="1">
-      <c r="B48" s="13"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62287C0-7FD6-48A5-9514-03B257F96545}">
-  <dimension ref="B1:R48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18">
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" ht="14.65" thickBot="1"/>
-    <row r="3" spans="2:18" ht="14.65" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="11"/>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="11"/>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="11"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="11"/>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="11"/>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="11"/>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="11"/>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="43"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="11"/>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="43"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="43"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="11"/>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="11"/>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="11"/>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="11"/>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="11"/>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" ht="15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:18" ht="15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="11"/>
-      <c r="C27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="25"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="20"/>
       <c r="R27" s="2"/>
     </row>
     <row r="28" spans="2:18">
@@ -2791,13 +1729,13 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="25"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2812,19 +1750,19 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="25"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="20"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2833,77 +1771,77 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="25"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="1"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="25"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="20"/>
       <c r="R31" s="2"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="25"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="20"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="2:18">
+    <row r="33" spans="2:18" ht="15">
       <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="25"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="20"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="2:18" ht="15">
+    <row r="34" spans="2:18">
       <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2913,12 +1851,12 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="25"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="20"/>
       <c r="R34" s="2"/>
     </row>
     <row r="35" spans="2:18">
@@ -2936,13 +1874,13 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="25"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="20"/>
       <c r="R35" s="2"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2957,16 +1895,16 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="25"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="20"/>
       <c r="R36" s="2"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="44"/>
+        <v>59</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2974,18 +1912,18 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="48"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="25"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="20"/>
       <c r="R37" s="2"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2997,16 +1935,16 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="25"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="20"/>
       <c r="R38" s="2"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3017,17 +1955,17 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="25"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="20"/>
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="11"/>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3039,10 +1977,10 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="25"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="20"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="2:18">
@@ -3061,9 +1999,9 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="25"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="20"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="2:18">
@@ -3081,13 +2019,13 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="25"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="2"/>
     </row>
     <row r="43" spans="2:18" ht="43.15">
       <c r="B43" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3102,16 +2040,16 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="25"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="20"/>
       <c r="R43" s="2"/>
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="11"/>
       <c r="C44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3122,15 +2060,15 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="25"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="20"/>
       <c r="R44" s="2"/>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="11"/>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3144,30 +2082,30 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="49"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="2"/>
     </row>
     <row r="46" spans="2:18">
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="22"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="17"/>
     </row>
     <row r="47" spans="2:18" ht="14.65" thickBot="1">
       <c r="B47" s="13"/>
@@ -3184,9 +2122,1040 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="30"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="25"/>
       <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="2:18" ht="15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62287C0-7FD6-48A5-9514-03B257F96545}">
+  <dimension ref="B1:R48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="14.65" thickBot="1"/>
+    <row r="3" spans="2:18" ht="14.65" thickBot="1">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="2:18" ht="15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="2:18" ht="15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="2:18" ht="15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="11"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
+    </row>
+    <row r="10" spans="2:18" ht="15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="39"/>
+    </row>
+    <row r="11" spans="2:18" ht="15">
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
+    </row>
+    <row r="12" spans="2:18" ht="15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+    </row>
+    <row r="13" spans="2:18" ht="15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="39"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="11"/>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="11"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="39"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="11"/>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="39"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="11"/>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="11"/>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="39"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="11"/>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="11"/>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="39"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="11"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="39"/>
+    </row>
+    <row r="25" spans="2:18" ht="15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
+    </row>
+    <row r="26" spans="2:18" ht="15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="39"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="11"/>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="39"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="11"/>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="39"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="11"/>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="11"/>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="39"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="11"/>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="39"/>
+    </row>
+    <row r="34" spans="2:18" ht="15">
+      <c r="B34" s="11"/>
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="39"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="11"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="11"/>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="39"/>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="11"/>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="39"/>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="11"/>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="39"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="11"/>
+      <c r="C40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="39"/>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="11"/>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="11"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="2:18" ht="43.15">
+      <c r="B43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="11"/>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="39"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="11"/>
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="39"/>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="15"/>
+      <c r="C46" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="43"/>
+    </row>
+    <row r="47" spans="2:18" ht="14.65" thickBot="1">
+      <c r="B47" s="13"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="47"/>
     </row>
     <row r="48" spans="2:18" ht="15"/>
   </sheetData>
@@ -3196,6 +3165,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100504F0EFF1BE61D46A34440DDC749B165" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6861fccdae819c068e3d2675729df3bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29ddf0ed-477c-451e-8755-cfaffaaa5733" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fc745dc185d8196f008ac861e10f643" ns2:_="">
     <xsd:import namespace="29ddf0ed-477c-451e-8755-cfaffaaa5733"/>
@@ -3327,15 +3305,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3343,11 +3312,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2ED85-0D3A-4C52-A0D1-D82ED15E39CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2ED85-0D3A-4C52-A0D1-D82ED15E39CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Doc/Project Plan_weekly.xlsx
+++ b/Doc/Project Plan_weekly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu.sharepoint.com/sites/msteams_564c74/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AFCE685-1AE1-43CC-BB2B-B996E33C641F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C515258-4805-4C30-BD3C-625EB5CF95BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" firstSheet="1" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
+    <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
   </bookViews>
   <sheets>
     <sheet name="Projected" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -725,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -756,7 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -789,6 +794,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,7 +1113,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="P44" sqref="P44:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1242,19 +1249,19 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="49"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="48"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="2"/>
     </row>
@@ -1263,19 +1270,19 @@
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="49"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="2"/>
     </row>
@@ -1284,19 +1291,19 @@
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="49"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="2"/>
     </row>
@@ -1345,7 +1352,7 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1366,7 +1373,7 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1387,21 +1394,21 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="11"/>
@@ -1419,9 +1426,9 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="54"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="53"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="2:18">
@@ -1440,10 +1447,10 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="49"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="55"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="11"/>
@@ -1461,10 +1468,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="49"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="55"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="11"/>
@@ -1511,19 +1518,19 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="2"/>
     </row>
@@ -1532,19 +1539,19 @@
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="2"/>
     </row>
@@ -1553,19 +1560,19 @@
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="2"/>
     </row>
@@ -1574,19 +1581,19 @@
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="2"/>
     </row>
@@ -1597,16 +1604,16 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="50"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="2"/>
@@ -1656,16 +1663,16 @@
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="21"/>
@@ -1677,16 +1684,16 @@
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="21"/>
@@ -1702,15 +1709,15 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="56"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="55"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="2"/>
     </row>
@@ -1759,10 +1766,10 @@
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="33"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1781,11 +1788,11 @@
         <v>54</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1803,11 +1810,11 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1827,10 +1834,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -1851,9 +1858,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="33"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="1"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="20"/>
@@ -2061,7 +2068,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="27"/>
+      <c r="P44" s="60"/>
       <c r="Q44" s="20"/>
       <c r="R44" s="2"/>
     </row>
@@ -2082,7 +2089,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="27"/>
+      <c r="P45" s="60"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="2"/>
     </row>
@@ -2103,7 +2110,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
-      <c r="P46" s="28"/>
+      <c r="P46" s="61"/>
       <c r="Q46" s="24"/>
       <c r="R46" s="17"/>
     </row>
@@ -2122,7 +2129,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="29"/>
+      <c r="P47" s="28"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="4"/>
     </row>
@@ -2138,7 +2145,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2259,78 +2266,78 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="2:18" ht="15">
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="15">
       <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="39"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="2:18" ht="15">
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="11"/>
@@ -2341,15 +2348,15 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="11" t="s">
@@ -2362,141 +2369,141 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="2:18" ht="15">
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="39"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="2:18" ht="15">
       <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="2:18" ht="15">
       <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="39"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" ht="15">
       <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="39"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="38"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="11"/>
@@ -2507,15 +2514,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="39"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="11" t="s">
@@ -2527,99 +2534,99 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="39"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="38"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="39"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="11"/>
@@ -2632,15 +2639,15 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="39"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="11"/>
@@ -2651,15 +2658,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="11" t="s">
@@ -2672,57 +2679,57 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="39"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="38"/>
     </row>
     <row r="25" spans="2:18" ht="15">
       <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
     </row>
     <row r="26" spans="2:18" ht="15">
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="11"/>
@@ -2735,15 +2742,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="11"/>
@@ -2754,15 +2761,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="39"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="38"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="11" t="s">
@@ -2775,57 +2782,57 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="30"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="39"/>
-    </row>
-    <row r="31" spans="2:18">
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="2:18" ht="15">
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="11"/>
@@ -2834,19 +2841,19 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="39"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="38"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="11"/>
@@ -2857,17 +2864,17 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="39"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="38"/>
     </row>
     <row r="34" spans="2:18" ht="15">
       <c r="B34" s="11"/>
@@ -2880,15 +2887,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="39"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="11"/>
@@ -2899,15 +2906,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="38"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="11" t="s">
@@ -2920,36 +2927,36 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="39"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="38"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="11"/>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="39"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="38"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="11"/>
@@ -2962,15 +2969,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="39"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="38"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="11"/>
@@ -2983,15 +2990,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="39"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="38"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="11"/>
@@ -3004,15 +3011,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="39"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="38"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="11"/>
@@ -3025,15 +3032,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="39"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="38"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="11"/>
@@ -3044,15 +3051,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="39"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="38"/>
     </row>
     <row r="43" spans="2:18" ht="43.15">
       <c r="B43" s="12" t="s">
@@ -3065,36 +3072,36 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="39"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="38"/>
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="11"/>
       <c r="C44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="39"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="38"/>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="11"/>
@@ -3107,15 +3114,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="39"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="38"/>
     </row>
     <row r="46" spans="2:18">
       <c r="B46" s="15"/>
@@ -3128,15 +3135,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="43"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="42"/>
     </row>
     <row r="47" spans="2:18" ht="14.65" thickBot="1">
       <c r="B47" s="13"/>
@@ -3147,15 +3154,15 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="47"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="46"/>
     </row>
     <row r="48" spans="2:18" ht="15"/>
   </sheetData>
@@ -3165,6 +3172,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3173,7 +3186,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100504F0EFF1BE61D46A34440DDC749B165" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6861fccdae819c068e3d2675729df3bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29ddf0ed-477c-451e-8755-cfaffaaa5733" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fc745dc185d8196f008ac861e10f643" ns2:_="">
     <xsd:import namespace="29ddf0ed-477c-451e-8755-cfaffaaa5733"/>
@@ -3305,20 +3318,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D92219-BA5C-4674-AF14-9AA0F4435448}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2ED85-0D3A-4C52-A0D1-D82ED15E39CE}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D92219-BA5C-4674-AF14-9AA0F4435448}"/>
 </file>
--- a/Doc/Project Plan_weekly.xlsx
+++ b/Doc/Project Plan_weekly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu.sharepoint.com/sites/msteams_564c74/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C515258-4805-4C30-BD3C-625EB5CF95BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{064E48CC-FF20-47D7-A2F0-248D409EC418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
+    <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" firstSheet="1" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
   </bookViews>
   <sheets>
     <sheet name="Projected" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBFBFBF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -731,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -796,6 +803,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2145,7 +2153,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2434,8 +2442,8 @@
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
@@ -2607,7 +2615,7 @@
       <c r="Q20" s="37"/>
       <c r="R20" s="38"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" ht="15">
       <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>47</v>
@@ -2620,7 +2628,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
@@ -2628,7 +2636,7 @@
       <c r="Q21" s="37"/>
       <c r="R21" s="38"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" ht="15">
       <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>48</v>
@@ -2641,7 +2649,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
@@ -3117,7 +3125,7 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
+      <c r="M45" s="14"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
@@ -3137,7 +3145,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
+      <c r="L46" s="14"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
@@ -3172,21 +3180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100504F0EFF1BE61D46A34440DDC749B165" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6861fccdae819c068e3d2675729df3bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29ddf0ed-477c-451e-8755-cfaffaaa5733" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fc745dc185d8196f008ac861e10f643" ns2:_="">
     <xsd:import namespace="29ddf0ed-477c-451e-8755-cfaffaaa5733"/>
@@ -3318,8 +3311,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D92219-BA5C-4674-AF14-9AA0F4435448}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3327,5 +3335,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58D92219-BA5C-4674-AF14-9AA0F4435448}"/>
 </file>
--- a/Doc/Project Plan_weekly.xlsx
+++ b/Doc/Project Plan_weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcastedu.sharepoint.com/sites/msteams_564c74/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{064E48CC-FF20-47D7-A2F0-248D409EC418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C348DF-C81C-4878-BA62-25C71AA75A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="5490" yWindow="4758" windowWidth="21600" windowHeight="11010" firstSheet="1" activeTab="1" xr2:uid="{43DE01C0-A2D8-4F36-9ADC-E22CC990D539}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Projected" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -311,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +378,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -738,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -804,6 +810,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,7 +2166,7 @@
   <dimension ref="B1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2443,19 +2456,19 @@
       <c r="J12" s="51"/>
       <c r="K12" s="32"/>
       <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="37"/>
-      <c r="R12" s="38"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="2:18" ht="15">
       <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="58"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2469,7 +2482,7 @@
       <c r="O13" s="32"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="11"/>
@@ -2490,7 +2503,7 @@
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="37"/>
-      <c r="R14" s="38"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="11"/>
@@ -2511,7 +2524,7 @@
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="11"/>
@@ -2633,7 +2646,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
-      <c r="Q21" s="37"/>
+      <c r="Q21" s="67"/>
       <c r="R21" s="38"/>
     </row>
     <row r="22" spans="2:18" ht="15">
@@ -2650,7 +2663,7 @@
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="L22" s="62"/>
-      <c r="M22" s="32"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -2754,7 +2767,7 @@
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="N27" s="68"/>
       <c r="O27" s="32"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="37"/>
@@ -2876,7 +2889,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="32"/>
       <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
@@ -2897,9 +2910,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="32"/>
       <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="39"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="64"/>
       <c r="O34" s="39"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="37"/>
@@ -2939,8 +2952,8 @@
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
       <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="65"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="38"/>
@@ -2960,8 +2973,8 @@
       <c r="K37" s="32"/>
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="32"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="38"/>
@@ -2982,7 +2995,7 @@
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
+      <c r="O38" s="65"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="38"/>
@@ -3003,7 +3016,7 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
+      <c r="O39" s="65"/>
       <c r="P39" s="32"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="38"/>
@@ -3025,7 +3038,7 @@
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="P40" s="65"/>
       <c r="Q40" s="37"/>
       <c r="R40" s="38"/>
     </row>
@@ -3048,7 +3061,7 @@
       <c r="O41" s="40"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="37"/>
-      <c r="R41" s="38"/>
+      <c r="R41" s="66"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="11"/>
@@ -3105,7 +3118,7 @@
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
+      <c r="N44" s="14"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
       <c r="Q44" s="37"/>
@@ -3125,8 +3138,8 @@
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="14"/>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="37"/>
@@ -3145,9 +3158,9 @@
       <c r="I46" s="1"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
-      <c r="L46" s="14"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
+      <c r="N46" s="14"/>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="41"/>
@@ -3180,6 +3193,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100504F0EFF1BE61D46A34440DDC749B165" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6861fccdae819c068e3d2675729df3bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="29ddf0ed-477c-451e-8755-cfaffaaa5733" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fc745dc185d8196f008ac861e10f643" ns2:_="">
     <xsd:import namespace="29ddf0ed-477c-451e-8755-cfaffaaa5733"/>
@@ -3311,15 +3333,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3327,11 +3340,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2ED85-0D3A-4C52-A0D1-D82ED15E39CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FE2ED85-0D3A-4C52-A0D1-D82ED15E39CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFD7FEF4-E84B-468B-9D19-73896C646B9B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
